--- a/doc/8-19-2024 Burchett C-10003 Moss Mountain.xlsx
+++ b/doc/8-19-2024 Burchett C-10003 Moss Mountain.xlsx
@@ -27,14 +27,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -657,25 +650,28 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
@@ -684,118 +680,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,10 +1320,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP141"/>
+  <dimension ref="A1:DP183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A122" sqref="$A44:$XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8"/>
@@ -15221,12 +15214,12 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
+          <t>Burchett, Sitas Garret</t>
         </is>
       </c>
       <c r="C44" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D44" s="42" t="inlineStr">
@@ -15360,7 +15353,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Salgado-Rivera, Edgar Jacob</t>
+          <t>Schaefer, Jeremy David</t>
         </is>
       </c>
       <c r="C45" s="42" t="inlineStr">
@@ -15499,17 +15492,29 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
+          <t>Perry, Patrick Nicholas Aleksander</t>
+        </is>
+      </c>
+      <c r="C46" s="42" t="inlineStr">
+        <is>
+          <t>07:30 i</t>
+        </is>
+      </c>
+      <c r="D46" s="42" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="C46" s="42" t="inlineStr">
+      <c r="E46" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F46" s="42" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D46" s="42" t="n"/>
-      <c r="E46" s="42" t="n"/>
-      <c r="F46" s="42" t="n"/>
       <c r="G46" s="42" t="n"/>
       <c r="H46" s="42" t="n"/>
       <c r="I46" s="42" t="n"/>
@@ -15626,7 +15631,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Schaefer, Jeremy David</t>
+          <t>Garcia Sandoval, Emanve</t>
         </is>
       </c>
       <c r="C47" s="42" t="inlineStr">
@@ -15649,66 +15654,18 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="G47" s="42" t="inlineStr">
-        <is>
-          <t>Perry, Patrick Nicholas Aleksander.</t>
-        </is>
-      </c>
-      <c r="H47" s="42" t="inlineStr">
-        <is>
-          <t>FFT2</t>
-        </is>
-      </c>
-      <c r="I47" s="42" t="inlineStr">
-        <is>
-          <t>07:30 i</t>
-        </is>
-      </c>
-      <c r="J47" s="42" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="K47" s="42" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="L47" s="42" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="M47" s="42" t="inlineStr">
-        <is>
-          <t>Garcia Sandoval, Emanve!</t>
-        </is>
-      </c>
-      <c r="N47" s="42" t="inlineStr">
-        <is>
-          <t>FFT2</t>
-        </is>
-      </c>
-      <c r="O47" s="42" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="P47" s="42" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="Q47" s="42" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="R47" s="42" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+      <c r="G47" s="42" t="n"/>
+      <c r="H47" s="42" t="n"/>
+      <c r="I47" s="42" t="n"/>
+      <c r="J47" s="42" t="n"/>
+      <c r="K47" s="42" t="n"/>
+      <c r="L47" s="42" t="n"/>
+      <c r="M47" s="42" t="n"/>
+      <c r="N47" s="42" t="n"/>
+      <c r="O47" s="42" t="n"/>
+      <c r="P47" s="42" t="n"/>
+      <c r="Q47" s="42" t="n"/>
+      <c r="R47" s="42" t="n"/>
       <c r="S47" s="42" t="n"/>
       <c r="T47" s="42" t="n"/>
       <c r="U47" s="42" t="n"/>
@@ -18037,21 +17994,29 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Burchett, Silas Garret</t>
+          <t>Burchett, Sitas Garret</t>
         </is>
       </c>
       <c r="C64" s="42" t="inlineStr">
         <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D64" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E64" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F64" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D64" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E64" s="42" t="n"/>
-      <c r="F64" s="42" t="n"/>
       <c r="G64" s="42" t="n"/>
       <c r="H64" s="42" t="n"/>
       <c r="I64" s="42" t="n"/>
@@ -18173,22 +18138,22 @@
       </c>
       <c r="C65" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D65" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E65" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F65" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D65" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E65" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F65" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G65" s="42" t="n"/>
@@ -18307,27 +18272,27 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mendez, Enrique David</t>
+          <t>Perry, Patrick Nicholas Aleksander</t>
         </is>
       </c>
       <c r="C66" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D66" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E66" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F66" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D66" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E66" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F66" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G66" s="42" t="n"/>
@@ -18446,27 +18411,27 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Garcia Sandoval, Emanuel</t>
+          <t>Garcia Sandoval, Emanve</t>
         </is>
       </c>
       <c r="C67" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D67" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E67" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F67" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D67" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E67" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F67" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G67" s="42" t="n"/>
@@ -18590,22 +18555,22 @@
       </c>
       <c r="C68" s="42" t="inlineStr">
         <is>
+          <t xml:space="preserve">07:30 </t>
+        </is>
+      </c>
+      <c r="D68" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E68" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F68" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D68" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E68" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F68" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G68" s="42" t="n"/>
@@ -18729,22 +18694,22 @@
       </c>
       <c r="C69" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D69" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E69" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F69" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D69" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E69" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F69" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G69" s="42" t="n"/>
@@ -18868,22 +18833,22 @@
       </c>
       <c r="C70" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D70" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E70" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F70" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D70" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E70" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F70" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G70" s="42" t="n"/>
@@ -19007,22 +18972,22 @@
       </c>
       <c r="C71" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D71" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E71" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F71" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D71" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E71" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F71" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G71" s="42" t="n"/>
@@ -19146,22 +19111,22 @@
       </c>
       <c r="C72" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D72" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E72" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F72" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D72" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E72" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F72" s="42" t="inlineStr">
-        <is>
-          <t>.000</t>
         </is>
       </c>
       <c r="G72" s="42" t="n"/>
@@ -19285,22 +19250,22 @@
       </c>
       <c r="C73" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D73" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E73" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F73" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D73" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E73" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F73" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G73" s="42" t="n"/>
@@ -19424,22 +19389,22 @@
       </c>
       <c r="C74" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D74" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E74" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F74" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D74" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E74" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F74" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G74" s="42" t="n"/>
@@ -19563,22 +19528,22 @@
       </c>
       <c r="C75" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D75" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E75" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F75" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D75" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E75" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F75" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G75" s="42" t="n"/>
@@ -19697,59 +19662,35 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Picazo, Melecio Adan</t>
+          <t>Picazo, Metecio Adan</t>
         </is>
       </c>
       <c r="C76" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D76" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E76" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F76" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D76" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E76" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F76" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="G76" s="42" t="inlineStr">
-        <is>
-          <t>Riccobelli, Matias.</t>
-        </is>
-      </c>
-      <c r="H76" s="42" t="inlineStr">
-        <is>
-          <t>FFT2</t>
-        </is>
-      </c>
-      <c r="I76" s="42" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="J76" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="K76" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="L76" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
+      <c r="G76" s="42" t="n"/>
+      <c r="H76" s="42" t="n"/>
+      <c r="I76" s="42" t="n"/>
+      <c r="J76" s="42" t="n"/>
+      <c r="K76" s="42" t="n"/>
+      <c r="L76" s="42" t="n"/>
       <c r="M76" s="42" t="n"/>
       <c r="N76" s="42" t="n"/>
       <c r="O76" s="42" t="n"/>
@@ -19860,27 +19801,27 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ferrara, Joseph Theodore</t>
+          <t>Riccobelli, Matias</t>
         </is>
       </c>
       <c r="C77" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D77" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E77" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F77" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D77" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E77" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F77" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G77" s="42" t="n"/>
@@ -19999,27 +19940,27 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lawrence, Elijah Selby</t>
+          <t>Ferrara, Joseph Theodore</t>
         </is>
       </c>
       <c r="C78" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D78" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E78" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F78" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D78" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E78" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F78" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G78" s="42" t="n"/>
@@ -20138,27 +20079,27 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Frausto, Tyler Landey</t>
+          <t>Lawrence, Elijah Selby</t>
         </is>
       </c>
       <c r="C79" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D79" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E79" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F79" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D79" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E79" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F79" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G79" s="42" t="n"/>
@@ -20277,27 +20218,27 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mixon, Nathan Andrew</t>
+          <t>Frausto, Tyler Landey</t>
         </is>
       </c>
       <c r="C80" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D80" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E80" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F80" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D80" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E80" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F80" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G80" s="42" t="n"/>
@@ -20416,27 +20357,27 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
+          <t>Mixon,Nathan Andrew</t>
         </is>
       </c>
       <c r="C81" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D81" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E81" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F81" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D81" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E81" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F81" s="42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="G81" s="42" t="n"/>
@@ -20555,74 +20496,38 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
+          <t>Torres-Garcia, Jose Eduardo</t>
         </is>
       </c>
       <c r="C82" s="42" t="inlineStr">
         <is>
-          <t>20:00 | 22</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D82" s="42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E82" s="42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F82" s="42" t="inlineStr">
         <is>
-          <t>REMARK</t>
-        </is>
-      </c>
-      <c r="G82" s="42" t="inlineStr">
-        <is>
-          <t>travel</t>
-        </is>
-      </c>
-      <c r="H82" s="42" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
-        </is>
-      </c>
-      <c r="I82" s="42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J82" s="42" t="inlineStr">
-        <is>
-          <t>12 OFHCERI-CHARGErqa0</t>
-        </is>
-      </c>
-      <c r="K82" s="42" t="inlineStr">
-        <is>
-          <t>[14NAMe Porson Posting to tnorgency Tho Reprm</t>
-        </is>
-      </c>
-      <c r="L82" s="42" t="inlineStr">
-        <is>
-          <t>5OA</t>
-        </is>
-      </c>
-      <c r="M82" s="42" t="inlineStr">
-        <is>
-          <t>261-9</t>
-        </is>
-      </c>
-      <c r="N82" s="42" t="inlineStr">
-        <is>
-          <t>NES000891</t>
-        </is>
-      </c>
-      <c r="O82" s="42" t="inlineStr">
-        <is>
-          <t>Preccribod by OgOAUrt (NwCt Haodbrok No )</t>
-        </is>
-      </c>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G82" s="42" t="n"/>
+      <c r="H82" s="42" t="n"/>
+      <c r="I82" s="42" t="n"/>
+      <c r="J82" s="42" t="n"/>
+      <c r="K82" s="42" t="n"/>
+      <c r="L82" s="42" t="n"/>
+      <c r="M82" s="42" t="n"/>
+      <c r="N82" s="42" t="n"/>
+      <c r="O82" s="42" t="n"/>
       <c r="P82" s="42" t="n"/>
       <c r="Q82" s="42" t="n"/>
       <c r="R82" s="42" t="n"/>
@@ -20730,21 +20635,29 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Burchett, Silas Garret</t>
+          <t>Salgado-Rivera, Edgar Jacob</t>
         </is>
       </c>
       <c r="C83" s="42" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D83" s="42" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E83" s="42" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F83" s="42" t="inlineStr">
+        <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="D83" s="42" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E83" s="42" t="n"/>
-      <c r="F83" s="42" t="n"/>
       <c r="G83" s="42" t="n"/>
       <c r="H83" s="42" t="n"/>
       <c r="I83" s="42" t="n"/>
@@ -20861,562 +20774,547 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Schaefer, Jeremy David</t>
+          <t>Burchett, Silas Garret</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mendez, Enrique David</t>
+          <t>Schaefer, Jeremy David</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Garcia Sandoval, Emanuel</t>
+          <t>Mendez, Enrique David</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Flores, Deacon Ashton</t>
+          <t>Garcia Sandoval, Emanuel</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salazar, Raymar Albert</t>
+          <t>Flores, Deacon Ashton</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Govea, Evan Elias</t>
+          <t>Salazar, Raymar Albert</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mckinley, Brenner Paul</t>
+          <t>Govea, Evan Elias</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rogers, Jonathan Thomas</t>
+          <t>Mckinley, Brenner Paul</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>.000</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hereford, Nathaniel Stephen</t>
+          <t>Rogers,Jonathan Thomas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Braden, Brandon Derek</t>
+          <t>Hereford, Nathaniel Stephen</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Newsom, Brett M</t>
+          <t>Braden, Brandon Derek</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Picazo, Melecio Adan</t>
+          <t>Newsom,Brett M</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Riccobelli, Matias.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>FFT2</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ferrara, Joseph Theodore</t>
+          <t>Picazo,Melecio Adan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lawrence, Elijah Selby</t>
+          <t>Riccobelli, Matias</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Frausto, Tyler Landey</t>
+          <t>Ferrara,Joseph Theodore</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mixon, Nathan Andrew</t>
+          <t>Lawrence,Elijah Selby</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
+          <t>Frausto, Tyler Landey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
+          <t>Mixon, Nathan Andrew</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20:00 | 22</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>20:00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Burchett, Silas Garret</t>
+          <t>Torres-Garcia, Jose Eduardo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>22:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Schaefer, Jeremy David</t>
+          <t>Salgado-Rivera, Edgar Jacob</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Mendez, Enrique David</t>
+          <t>Burchett, Silas Garret</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -21427,23 +21325,13 @@
       <c r="D104" t="inlineStr">
         <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Garcia Sandoval, Emanuel</t>
+          <t>Schaefer, Jeremy David</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21470,7 +21358,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Flores, Deacon Ashton</t>
+          <t>Mendez, Enrique David</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21497,7 +21385,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Salazar, Raymar Albert</t>
+          <t>Garcia Sandoval, Emanuel</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21524,7 +21412,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Govea, Evan Elias</t>
+          <t>Flores, Deacon Ashton</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21551,7 +21439,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mckinley, Brenner Paul</t>
+          <t>Salazar, Raymar Albert</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21578,7 +21466,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rogers, Jonathan Thomas</t>
+          <t>Govea, Evan Elias</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21598,14 +21486,14 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>.000</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hereford, Nathaniel Stephen</t>
+          <t>Mckinley, Brenner Paul</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21632,7 +21520,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Braden, Brandon Derek</t>
+          <t>Rogers, Jonathan Thomas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -21652,14 +21540,14 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>000</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Newsom, Brett M</t>
+          <t>Hereford, Nathaniel Stephen</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -21686,7 +21574,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Picazo, Melecio Adan</t>
+          <t>Braden, Brandon Derek</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -21713,7 +21601,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Riccobelli, Matias.</t>
+          <t>Newsom, Brett M</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -21740,7 +21628,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ferrara, Joseph Theodore</t>
+          <t>Picazo, Melecio Adan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -21767,7 +21655,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lawrence, Elijah Selby</t>
+          <t>Riccobelli, Matias</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -21794,7 +21682,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Frausto, Tyler Landey</t>
+          <t>Ferrara, Joseph Theodore</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -21821,7 +21709,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mixon, Nathan Andrew</t>
+          <t>Lawrence, Elijah Selby</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -21848,7 +21736,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
+          <t>Frausto, Tyler Landey</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -21875,20 +21763,25 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
+          <t>Mixon, Nathan Andrew</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20:00 | 22</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
@@ -21897,7 +21790,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Burchett, Silas Garret</t>
+          <t>Torres-Garcia, Jose Eduardo</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -21908,31 +21801,36 @@
       <c r="D122" t="inlineStr">
         <is>
           <t>22:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Schaefer, Jeremy David</t>
+          <t>Salgado-Rivera,Edgar Jacob</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:00 | 22</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
@@ -21941,7 +21839,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mendez, Enrique David</t>
+          <t>Burchett, Silas Garret</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -21952,23 +21850,13 @@
       <c r="D124" t="inlineStr">
         <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Garcia Sandoval, Emanuel</t>
+          <t>Schaefer, Jeremy David</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -21995,7 +21883,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Flores, Deacon Ashton</t>
+          <t>Mendez, Enrique David</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -22022,7 +21910,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Salazar, Raymar Albert</t>
+          <t>Garcia Sandoval, Emanuel</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -22049,7 +21937,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Govea, Evan Elias</t>
+          <t>Flores, Deacon Ashton</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -22076,7 +21964,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mckinley, Brenner Paul</t>
+          <t>Salazar, Raymar Albert</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -22103,7 +21991,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rogers, Jonathan Thomas</t>
+          <t>Govea, Evan Elias</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -22123,14 +22011,14 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hereford, Nathaniel Stephen</t>
+          <t>Mckinley, Brenner Paul</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -22157,7 +22045,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Braden, Brandon Derek</t>
+          <t>Rogers, Jonathan Thomas</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -22177,14 +22065,14 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>000</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Newsom, Brett M</t>
+          <t>Hereford, Nathaniel Stephen</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -22211,7 +22099,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Picazo, Melecio Adan</t>
+          <t>Braden, Brandon Derek</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -22238,7 +22126,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Riccobelli, Matias</t>
+          <t>Newsom, Brett M</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -22265,7 +22153,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ferrara, Joseph Theodore</t>
+          <t>Picazo, Melecio Adan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -22292,7 +22180,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lawrence, Elijah Selby</t>
+          <t>Riccobelli, Matias</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -22319,7 +22207,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Frausto, Tyler Landey</t>
+          <t>Ferrara, Joseph Theodore</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -22346,7 +22234,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mixon, Nathan Andrew</t>
+          <t>Lawrence, Elijah Selby</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -22373,7 +22261,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
+          <t>Frausto, Tyler Landey</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -22400,20 +22288,1139 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
+          <t>Mixon, Nathan Andrew</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Torres-Garcia, Jose Eduardo</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
           <t>Salgado-Rivera,Edgar Jacob</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>20:00 | 22</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Burchett, Silas Garret</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Schaefer, Jeremy David</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Mendez, Enrique David</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Garcia Sandoval, Emanuel</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Flores, Deacon Ashton</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Salazar, Raymar Albert</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Govea, Evan Elias</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mckinley, Brenner Paul</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Rogers, Jonathan Thomas</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Hereford, Nathaniel Stephen</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Braden, Brandon Derek</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Newsom, Brett M</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Picazo, Melecio Adan</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Riccobelli, Matias</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ferrara, Joseph Theodore</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lawrence, Elijah Selby</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Frausto, Tyler Landey</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Mixon, Nathan Andrew</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Torres-Garcia, Jose Eduardo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Salgado-Rivera,Edgar Jacob</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Burchett, Silas Garret</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Schaefer, Jeremy David</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Mendez, Enrique David</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Garcia Sandoval, Emanuel</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Flores, Deacon Ashton</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Salazar, Raymar Albert</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Govea, Evan Elias</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Mckinley, Brenner Paul</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Rogers, Jonathan Thomas</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Hereford, Nathaniel Stephen</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Braden, Brandon Derek</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Newsom, Brett M</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Picazo, Melecio Adan</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Riccobelli, Matias</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Ferrara, Joseph Theodore</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Lawrence, Elijah Selby</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Frausto, Tyler Landey</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Mixon, Nathan Andrew</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Torres-Garcia, Jose Eduardo</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Salgado-Rivera,Edgar Jacob</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>

--- a/doc/8-19-2024 Burchett C-10003 Moss Mountain.xlsx
+++ b/doc/8-19-2024 Burchett C-10003 Moss Mountain.xlsx
@@ -1320,10 +1320,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP183"/>
+  <dimension ref="A1:DP123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A122" sqref="$A44:$XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.830357142857141" defaultRowHeight="16.8"/>
@@ -15214,29 +15214,21 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Burchett, Sitas Garret</t>
+          <t>Burchett, Silas Garret</t>
         </is>
       </c>
       <c r="C44" s="42" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D44" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E44" s="42" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F44" s="42" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="E44" s="42" t="n"/>
+      <c r="F44" s="42" t="n"/>
       <c r="G44" s="42" t="n"/>
       <c r="H44" s="42" t="n"/>
       <c r="I44" s="42" t="n"/>
@@ -15358,22 +15350,22 @@
       </c>
       <c r="C45" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D45" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E45" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F45" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G45" s="42" t="n"/>
@@ -15492,27 +15484,27 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Perry, Patrick Nicholas Aleksander</t>
+          <t>Mendez, Enrique David</t>
         </is>
       </c>
       <c r="C46" s="42" t="inlineStr">
         <is>
-          <t>07:30 i</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D46" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E46" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F46" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G46" s="42" t="n"/>
@@ -15631,27 +15623,27 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Garcia Sandoval, Emanve</t>
+          <t>Garcia Sandoval, Emanuel</t>
         </is>
       </c>
       <c r="C47" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D47" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E47" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F47" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G47" s="42" t="n"/>
@@ -15775,22 +15767,22 @@
       </c>
       <c r="C48" s="42" t="inlineStr">
         <is>
-          <t xml:space="preserve">07:30 </t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D48" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E48" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F48" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G48" s="42" t="n"/>
@@ -15914,22 +15906,22 @@
       </c>
       <c r="C49" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D49" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E49" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F49" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G49" s="42" t="n"/>
@@ -16053,22 +16045,22 @@
       </c>
       <c r="C50" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D50" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E50" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F50" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G50" s="42" t="n"/>
@@ -16192,22 +16184,22 @@
       </c>
       <c r="C51" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D51" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E51" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F51" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G51" s="42" t="n"/>
@@ -16331,22 +16323,22 @@
       </c>
       <c r="C52" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D52" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E52" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F52" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G52" s="42" t="n"/>
@@ -16470,22 +16462,22 @@
       </c>
       <c r="C53" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D53" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E53" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F53" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G53" s="42" t="n"/>
@@ -16609,22 +16601,22 @@
       </c>
       <c r="C54" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D54" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E54" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F54" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G54" s="42" t="n"/>
@@ -16748,22 +16740,22 @@
       </c>
       <c r="C55" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D55" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E55" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F55" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G55" s="42" t="n"/>
@@ -16882,27 +16874,27 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Picazo, Metecio Adan</t>
+          <t>Picazo, Melecio Adan</t>
         </is>
       </c>
       <c r="C56" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D56" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E56" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F56" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G56" s="42" t="n"/>
@@ -17026,22 +17018,22 @@
       </c>
       <c r="C57" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D57" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E57" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F57" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G57" s="42" t="n"/>
@@ -17165,22 +17157,22 @@
       </c>
       <c r="C58" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D58" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E58" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F58" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G58" s="42" t="n"/>
@@ -17304,22 +17296,22 @@
       </c>
       <c r="C59" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D59" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E59" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F59" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G59" s="42" t="n"/>
@@ -17443,22 +17435,22 @@
       </c>
       <c r="C60" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D60" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E60" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F60" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G60" s="42" t="n"/>
@@ -17577,27 +17569,27 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mixon,Nathan Andrew</t>
+          <t>Mixon, Nathan Andrew</t>
         </is>
       </c>
       <c r="C61" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D61" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E61" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F61" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G61" s="42" t="n"/>
@@ -17721,22 +17713,22 @@
       </c>
       <c r="C62" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D62" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E62" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F62" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G62" s="42" t="n"/>
@@ -17855,27 +17847,27 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salgado-Rivera, Edgar Jacob</t>
+          <t>Salgado-Rivera,Edgar Jacob</t>
         </is>
       </c>
       <c r="C63" s="42" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D63" s="42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="E63" s="42" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F63" s="42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G63" s="42" t="n"/>
@@ -21319,12 +21311,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>22:00</t>
         </is>
       </c>
     </row>
@@ -21336,22 +21338,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21363,22 +21365,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21390,22 +21392,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21417,22 +21419,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21444,22 +21446,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21471,22 +21473,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21498,49 +21500,49 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Rogers, Jonathan Thomas</t>
+          <t>Rogers,Jonathan Thomas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>000</t>
         </is>
       </c>
     </row>
@@ -21552,22 +21554,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21579,76 +21581,76 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Newsom, Brett M</t>
+          <t>Newsom,Brett M</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Picazo, Melecio Adan</t>
+          <t>Picazo,Melecio Adan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21660,76 +21662,76 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ferrara, Joseph Theodore</t>
+          <t>Ferrara,Joseph Theodore</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lawrence, Elijah Selby</t>
+          <t>Lawrence,Elijah Selby</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21741,22 +21743,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21768,22 +21770,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -21795,1634 +21797,49 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
+          <t>Salgado-Rivera, Edgar Jacob</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20:00 | 22</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Burchett, Silas Garret</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>20:00</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Schaefer, Jeremy David</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Mendez, Enrique David</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Garcia Sandoval, Emanuel</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Flores, Deacon Ashton</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Salazar, Raymar Albert</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Govea, Evan Elias</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Mckinley, Brenner Paul</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Rogers, Jonathan Thomas</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Hereford, Nathaniel Stephen</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Braden, Brandon Derek</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Newsom, Brett M</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Picazo, Melecio Adan</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Riccobelli, Matias</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Ferrara, Joseph Theodore</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Lawrence, Elijah Selby</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Frausto, Tyler Landey</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mixon, Nathan Andrew</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Burchett, Silas Garret</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Schaefer, Jeremy David</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Mendez, Enrique David</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Garcia Sandoval, Emanuel</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Flores, Deacon Ashton</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Salazar, Raymar Albert</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Govea, Evan Elias</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Mckinley, Brenner Paul</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Rogers, Jonathan Thomas</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Hereford, Nathaniel Stephen</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Braden, Brandon Derek</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Newsom, Brett M</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Picazo, Melecio Adan</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Riccobelli, Matias</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Ferrara, Joseph Theodore</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Lawrence, Elijah Selby</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Frausto, Tyler Landey</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Mixon, Nathan Andrew</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Burchett, Silas Garret</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Schaefer, Jeremy David</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Mendez, Enrique David</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Garcia Sandoval, Emanuel</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Flores, Deacon Ashton</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Salazar, Raymar Albert</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Govea, Evan Elias</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Mckinley, Brenner Paul</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Rogers, Jonathan Thomas</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Hereford, Nathaniel Stephen</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Braden, Brandon Derek</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Newsom, Brett M</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Picazo, Melecio Adan</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Riccobelli, Matias</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Ferrara, Joseph Theodore</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Lawrence, Elijah Selby</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Frausto, Tyler Landey</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Mixon, Nathan Andrew</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Torres-Garcia, Jose Eduardo</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Salgado-Rivera,Edgar Jacob</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
     </row>
